--- a/tests/metadata-generation/fixtures/cirp-ift.xlsx
+++ b/tests/metadata-generation/fixtures/cirp-ift.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\breurather\src\icodaq\versions - Kopie\CIRP-IFT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\breurather\src\icoweb\tests\metadata-generation\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18FFDD2-F2E6-48DC-9934-20203A928408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E766ECD4-1B0B-4D4B-9DCF-4D41E05A83DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="6" xr2:uid="{2B21317E-79C0-4BD6-8C8B-33401DD0D856}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{2B21317E-79C0-4BD6-8C8B-33401DD0D856}"/>
   </bookViews>
   <sheets>
     <sheet name="fields" sheetId="1" r:id="rId1"/>
@@ -375,9 +375,6 @@
     <t>boolean</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>twm_layer</t>
   </si>
   <si>
@@ -472,9 +469,6 @@
   </si>
   <si>
     <t>Thread Milling</t>
-  </si>
-  <si>
-    <t>file</t>
   </si>
   <si>
     <t>files</t>
@@ -845,6 +839,12 @@
   </si>
   <si>
     <t>Pictures(s) of the setup in the machine tool.</t>
+  </si>
+  <si>
+    <t>float_qty</t>
+  </si>
+  <si>
+    <t>image</t>
   </si>
 </sst>
 </file>
@@ -925,7 +925,49 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1322,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CAD10C-4E89-4AC8-9C59-7B36AAFDF76D}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1446,7 +1488,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>51</v>
@@ -1463,7 +1505,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>54</v>
@@ -1480,7 +1522,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>52</v>
@@ -1497,7 +1539,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>53</v>
@@ -1514,7 +1556,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>53</v>
@@ -1531,7 +1573,7 @@
         <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>53</v>
@@ -1548,7 +1590,7 @@
         <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>53</v>
@@ -1565,7 +1607,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>53</v>
@@ -1582,7 +1624,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
@@ -1612,7 +1654,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>53</v>
@@ -1648,7 +1690,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -1663,15 +1705,15 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>80</v>
@@ -1682,10 +1724,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>80</v>
@@ -1696,13 +1738,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>53</v>
@@ -1713,13 +1755,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>53</v>
@@ -1730,13 +1772,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>53</v>
@@ -1747,13 +1789,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>53</v>
@@ -1764,10 +1806,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>80</v>
@@ -1778,13 +1820,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>58</v>
@@ -1792,13 +1834,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>58</v>
@@ -1806,13 +1848,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>58</v>
@@ -1820,10 +1862,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>50</v>
@@ -1834,13 +1876,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>58</v>
@@ -1848,13 +1890,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>58</v>
@@ -1862,13 +1904,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>58</v>
@@ -1876,13 +1918,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>58</v>
@@ -1890,13 +1932,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>58</v>
@@ -1904,13 +1946,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>53</v>
@@ -1921,13 +1963,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>53</v>
@@ -1938,13 +1980,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>53</v>
@@ -1955,13 +1997,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>53</v>
@@ -1972,13 +2014,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>53</v>
@@ -1989,13 +2031,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>53</v>
@@ -2006,13 +2048,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>53</v>
@@ -2023,13 +2065,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>58</v>
@@ -2037,13 +2079,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>58</v>
@@ -2051,13 +2093,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>58</v>
@@ -2065,13 +2107,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>58</v>
@@ -2079,10 +2121,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>80</v>
@@ -2093,10 +2135,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>49</v>
@@ -2107,13 +2149,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>58</v>
@@ -2121,52 +2163,76 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="C1:E24 C29:E34 C36:E1048576">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="suggestions">
+  <conditionalFormatting sqref="C29:E34 C1:E24 C36:E1048576">
+    <cfRule type="containsText" dxfId="1" priority="17" operator="containsText" text="suggestions">
       <formula>NOT(ISERROR(SEARCH("suggestions",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Dropdown">
+    <cfRule type="containsText" dxfId="0" priority="18" operator="containsText" text="Dropdown">
       <formula>NOT(ISERROR(SEARCH("Dropdown",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:E35">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="suggestions">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="suggestions">
       <formula>NOT(ISERROR(SEARCH("suggestions",C35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Dropdown">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Dropdown">
       <formula>NOT(ISERROR(SEARCH("Dropdown",C35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:E25">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="suggestions">
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="suggestions">
+      <formula>NOT(ISERROR(SEARCH("suggestions",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Dropdown">
+      <formula>NOT(ISERROR(SEARCH("Dropdown",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:E26">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="suggestions">
+      <formula>NOT(ISERROR(SEARCH("suggestions",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Dropdown">
+      <formula>NOT(ISERROR(SEARCH("Dropdown",D26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:E27">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="suggestions">
+      <formula>NOT(ISERROR(SEARCH("suggestions",D27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Dropdown">
+      <formula>NOT(ISERROR(SEARCH("Dropdown",D27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:E28">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="suggestions">
+      <formula>NOT(ISERROR(SEARCH("suggestions",C28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Dropdown">
+      <formula>NOT(ISERROR(SEARCH("Dropdown",C28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="suggestions">
       <formula>NOT(ISERROR(SEARCH("suggestions",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Dropdown">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Dropdown">
       <formula>NOT(ISERROR(SEARCH("Dropdown",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:E26">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="suggestions">
+  <conditionalFormatting sqref="C26">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="suggestions">
       <formula>NOT(ISERROR(SEARCH("suggestions",C26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Dropdown">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Dropdown">
       <formula>NOT(ISERROR(SEARCH("Dropdown",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:E27">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="suggestions">
+  <conditionalFormatting sqref="C27">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="suggestions">
       <formula>NOT(ISERROR(SEARCH("suggestions",C27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Dropdown">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Dropdown">
       <formula>NOT(ISERROR(SEARCH("Dropdown",C27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:E28">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="suggestions">
-      <formula>NOT(ISERROR(SEARCH("suggestions",C28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Dropdown">
-      <formula>NOT(ISERROR(SEARCH("Dropdown",C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2203,7 +2269,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -2211,7 +2277,7 @@
         <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>76</v>
@@ -2220,7 +2286,7 @@
         <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -2231,23 +2297,23 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
@@ -2385,58 +2451,58 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" t="s">
         <v>149</v>
-      </c>
-      <c r="B8" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" t="s">
         <v>150</v>
-      </c>
-      <c r="B9" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2483,7 +2549,7 @@
         <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -2494,7 +2560,7 @@
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
@@ -2503,10 +2569,10 @@
         <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -2517,7 +2583,7 @@
         <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
         <v>78</v>
@@ -2526,10 +2592,10 @@
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -2540,30 +2606,30 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
         <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
         <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -2571,92 +2637,92 @@
         <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.4">
@@ -2682,7 +2748,7 @@
         <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -2715,7 +2781,7 @@
         <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -2723,7 +2789,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -2731,7 +2797,7 @@
         <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>76</v>
@@ -2740,7 +2806,7 @@
         <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -2754,7 +2820,7 @@
         <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -2768,7 +2834,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -2782,12 +2848,12 @@
         <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -2796,12 +2862,12 @@
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
@@ -2810,105 +2876,105 @@
         <v>67</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -2916,13 +2982,13 @@
         <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -2930,7 +2996,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -2944,7 +3010,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -2958,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -2972,13 +3038,13 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -2986,7 +3052,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -3000,7 +3066,7 @@
         <v>44</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -3014,7 +3080,7 @@
         <v>31</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
@@ -3028,7 +3094,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
         <v>25</v>
@@ -3042,7 +3108,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
@@ -3053,16 +3119,16 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -3148,7 +3214,7 @@
         <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -3156,7 +3222,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -3164,7 +3230,7 @@
         <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>76</v>
@@ -3173,240 +3239,240 @@
         <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5" s="9">
         <v>8</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -3482,7 +3548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB419CFD-8D63-4604-B9FB-5116F92A3DFA}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -3500,7 +3566,7 @@
         <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -3508,7 +3574,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -3516,7 +3582,7 @@
         <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>76</v>
@@ -3525,7 +3591,7 @@
         <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -3539,7 +3605,7 @@
         <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -3553,7 +3619,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -3567,12 +3633,12 @@
         <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -3581,12 +3647,12 @@
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
@@ -3595,105 +3661,105 @@
         <v>67</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -3701,13 +3767,13 @@
         <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -3715,7 +3781,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -3729,7 +3795,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -3743,7 +3809,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -3757,13 +3823,13 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -3771,7 +3837,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -3785,7 +3851,7 @@
         <v>44</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -3799,7 +3865,7 @@
         <v>31</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
@@ -3813,7 +3879,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
         <v>25</v>
@@ -3827,7 +3893,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
@@ -3838,16 +3904,16 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -3930,7 +3996,7 @@
         <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -3938,7 +4004,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -3946,7 +4012,7 @@
         <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>76</v>
@@ -3955,240 +4021,240 @@
         <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5" s="9">
         <v>8</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -4288,7 +4354,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -4296,7 +4362,7 @@
         <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>76</v>
@@ -4305,7 +4371,7 @@
         <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -4319,7 +4385,7 @@
         <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -4333,7 +4399,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -4347,7 +4413,7 @@
         <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -4361,7 +4427,7 @@
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -4375,10 +4441,10 @@
         <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -4392,7 +4458,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -4483,7 +4549,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -4499,7 +4565,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>3</v>
@@ -4519,7 +4585,7 @@
         <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -4533,7 +4599,7 @@
         <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
